--- a/biology/Botanique/Paullinia_capreolata/Paullinia_capreolata.xlsx
+++ b/biology/Botanique/Paullinia_capreolata/Paullinia_capreolata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paullinia capreolata est une espèce de liane ligneuse néotropicale de la famille des Sapindaceae, (proche du guarana).
-Cette espèce est connue sous les noms de Feifi finga (Nenge tongo), Fevi-fincar (Saramaka) en Guyane, Kutupurang au Guyana[3], Bejuco marrón, Manjar au Venezuela[4].
+Cette espèce est connue sous les noms de Feifi finga (Nenge tongo), Fevi-fincar (Saramaka) en Guyane, Kutupurang au Guyana, Bejuco marrón, Manjar au Venezuela.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paullinia capreolata est un complexe d'espèces largement répandu et hautement polymorphe[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paullinia capreolata est un complexe d'espèces largement répandu et hautement polymorphe.
 Paullinia capreolata est une liane ligneuse longue de 1,5 à 25 m, et atteignent jusqu'à 15 cm de diamètre à la base.
 Les tiges sont cylindriques, striées, lenticellées, tomenteuses-ferrugineuses lorsqu'elles sont jeunes puis devenant glabres, produisant un abondant latex laiteux.
 Les tiges florifères, fructifères et les plus anciennes sont cylindriques ou subcylindriques, jamais profondément sillonnées
@@ -527,7 +541,7 @@
 La foliole terminale est de forme aiguë ou atténuée, elliptiques ou elliptiques-lancéolées.
 Les marges sont subentières ou à dents glanduleuses éparses sur le tiers supérieur du limbe.
 Les nervures primaire et secondaires sont saillantes sur la face abaxiale, et les nervures tertiaires forment des barreaux jaunâtres.
-On note la présence de domaties à l'aisselle des nervures secondaires[5].
+On note la présence de domaties à l'aisselle des nervures secondaires.
 L'inflorescence est un thyrse, racémiforme, solitaire ou paniculé, axillaire ou terminale, à axes brièvement pubérulents ou tomenteux ou glabres. 
 Les cymes hélicoïdes portent un stipe long de 1-4 mm.
 Les bractées et bractéoles sont triangulaires, longues de 1 mm).
@@ -539,8 +553,8 @@
 Le fruit est une capsule ligneuse-crustacée, de forme déprimée-globuleuse ou globuleuse-trigone, non ailée, de couleur jaune à orange, portant un stipe court, à surface glabre à finement pubescent, mesurant 1,5-2,5 x 1,5-2,7 cm, devenant ridée au séchage, et contenant une graine unique.
 Le péricarpe est épais de 2-3 mm.
 L'endocarpe est densément laineux-pubescent.
-La graine entourée d'un arille (ou non[5]), est de forme aplatie à globuleuse déprimée, de couleur brune ou brun foncé, terne, non sarcotestale, large de 1,2-1,5 cm[3],[6],[7],[4].
-Paullinia capreolata est morphologiquement très proche de P. clathrata et de P. curvicuspis, mais s'en distingue par la présence de domaties[5].
+La graine entourée d'un arille (ou non), est de forme aplatie à globuleuse déprimée, de couleur brune ou brun foncé, terne, non sarcotestale, large de 1,2-1,5 cm.
+Paullinia capreolata est morphologiquement très proche de P. clathrata et de P. curvicuspis, mais s'en distingue par la présence de domaties.
 </t>
         </is>
       </c>
@@ -569,10 +583,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paullinia capreolata est connu du Costa Rica, au Brésil, en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[3],[4].
-Cette aire de répartition serait restreinte à la Guyane, au Pérou et au Brésil amazonien d'après certaines sources[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paullinia capreolata est connu du Costa Rica, au Brésil, en passant par la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie,.
+Cette aire de répartition serait restreinte à la Guyane, au Pérou et au Brésil amazonien d'après certaines sources.
 </t>
         </is>
       </c>
@@ -601,17 +617,19 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paullinia capreolata est une liane poussant dans les forêts humides des terres basses[3].
-Au Venezuela, on la trouve dans les forêts humides et ripicoles, les forêts galeries et la végétation secondaire, autour de 50–700 m d'altitude[4].
-Paullinia capreolata fleurirait en novembre et fructifierait de février à avril[5].
-Paullinia capreolata contient un composé cyanogènes (glycoside cyanogène : cardiospermine) dans ses feuilles, ses graines[8].
-Les graines de Paullinia capreolata meurent en cas de dessiccation[9].
-Les singes Atèle Ateles paniscus consomme les fruits mûrs de Paullinia capreolata en Guyane[10].
-Dans la Reserva de Desenvolvimento Sustentável Mamirauá (pt) (Amazonas), les fruits de Paullinia capreolata sont consommés par les singes-écureuils Saimiri sciureus cassiquiarensis (LESSON, 1840) dans les várzea en périodes de crue[11], ainsi que Saimiri macrodon (Elliot, 1907)[12].
-Le daguet rouge Mazama americana consomme régulièrement le péricarpe et les graines de Paullinia capreolata en Guyane[13],[14].
-Les fleurs de Paullinia capreolata sont pollinisées dans la région de Manaus (Amazonas par 3 espèces d'abeilles[15].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paullinia capreolata est une liane poussant dans les forêts humides des terres basses.
+Au Venezuela, on la trouve dans les forêts humides et ripicoles, les forêts galeries et la végétation secondaire, autour de 50–700 m d'altitude.
+Paullinia capreolata fleurirait en novembre et fructifierait de février à avril.
+Paullinia capreolata contient un composé cyanogènes (glycoside cyanogène : cardiospermine) dans ses feuilles, ses graines.
+Les graines de Paullinia capreolata meurent en cas de dessiccation.
+Les singes Atèle Ateles paniscus consomme les fruits mûrs de Paullinia capreolata en Guyane.
+Dans la Reserva de Desenvolvimento Sustentável Mamirauá (pt) (Amazonas), les fruits de Paullinia capreolata sont consommés par les singes-écureuils Saimiri sciureus cassiquiarensis (LESSON, 1840) dans les várzea en périodes de crue, ainsi que Saimiri macrodon (Elliot, 1907).
+Le daguet rouge Mazama americana consomme régulièrement le péricarpe et les graines de Paullinia capreolata en Guyane,.
+Les fleurs de Paullinia capreolata sont pollinisées dans la région de Manaus (Amazonas par 3 espèces d'abeilles.
 </t>
         </is>
       </c>
@@ -640,9 +658,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit de Paullinia capreolata est réputé comestible[4], mais cette information reste à vérifier au vu des composés cyanogènes contenus dans la plante[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de Paullinia capreolata est réputé comestible, mais cette information reste à vérifier au vu des composés cyanogènes contenus dans la plante.
 </t>
         </is>
       </c>
@@ -671,9 +691,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[16] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « ENOUREA capreolata. (Tabula 235.)
 Frutex ſarmentoſus ; ramos plures, ſcandentes, ſuprà arbores ſparſos, è trunco tripedali emittens. Folia alterna, impari-pinnata, foliolis duobus, utrinque oppoſitis, coſtæ adnexis, ſubrotundis, acutis, glabris, ſubtùs ferrugineis; viticulus circinatus, ex axillâ quorundam foliorum, ſimùl &amp; ſpica florum, ſed plures ſpicæ ad apicem ramulorum. Flores in ſpicà alternatim plures congeſti diſponuntur. Folia lacerata, rami &amp; ramuli vulnerati, ſuccum lacteum fundunt.
 Florebat Novembri.
